--- a/document/공통코드구조.xlsx
+++ b/document/공통코드구조.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>HRM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,38 @@
   </si>
   <si>
     <t>직위유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +717,7 @@
     <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
@@ -976,20 +1008,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
